--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>658</v>
-      </c>
-      <c r="C2" t="n">
-        <v>886</v>
-      </c>
-      <c r="D2" t="n">
-        <v>504</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1224</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H2" t="n">
-        <v>212</v>
-      </c>
-      <c r="I2" t="n">
-        <v>542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>460</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1888</v>
-      </c>
-      <c r="L2" t="n">
-        <v>28445</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421</v>
-      </c>
-      <c r="N2" t="n">
-        <v>884</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3061</v>
-      </c>
-      <c r="S2" t="n">
-        <v>545</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>328</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>36</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>276</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2114</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1666</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1276</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>94</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2063</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>671</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1420</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>74</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>867</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1154</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>432</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>189</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>759</v>
-      </c>
-      <c r="C3" t="n">
-        <v>998</v>
-      </c>
-      <c r="D3" t="n">
-        <v>570</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1364</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1694</v>
-      </c>
-      <c r="H3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I3" t="n">
-        <v>568</v>
-      </c>
-      <c r="J3" t="n">
-        <v>509</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2092</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31423</v>
-      </c>
-      <c r="M3" t="n">
-        <v>480</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1191</v>
-      </c>
-      <c r="P3" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>17</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3348</v>
-      </c>
-      <c r="S3" t="n">
-        <v>591</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>357</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>40</v>
-      </c>
-      <c r="X3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>286</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2311</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1406</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>106</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2301</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>740</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1902</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1553</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>922</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1244</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>441</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>215</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>838</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1134</v>
-      </c>
-      <c r="D4" t="n">
-        <v>628</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1530</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1844</v>
-      </c>
-      <c r="H4" t="n">
-        <v>224</v>
-      </c>
-      <c r="I4" t="n">
-        <v>604</v>
-      </c>
-      <c r="J4" t="n">
-        <v>539</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2245</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34466</v>
-      </c>
-      <c r="M4" t="n">
-        <v>533</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1070</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1333</v>
-      </c>
-      <c r="P4" t="n">
-        <v>297</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>17</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3690</v>
-      </c>
-      <c r="S4" t="n">
-        <v>631</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>373</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>49</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>299</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2558</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2050</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1597</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>108</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2579</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>760</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2066</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1652</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>78</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1394</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>463</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>217</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
